--- a/Output/Country_spreadsheet.xlsx
+++ b/Output/Country_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rclar\Dropbox\Pinsky_Lab\Temporal_Genomics_WG\SoF_Analyses\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC5FAA7-0CF6-42E7-8F95-0AEEB22CC2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D387C4-26DE-433A-9C02-530BAFC1471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19306" windowHeight="13875" tabRatio="853" activeTab="1" xr2:uid="{A17D980A-AD6A-43CF-AB44-CB4159406AD2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19156" windowHeight="13875" tabRatio="853" activeTab="1" xr2:uid="{A17D980A-AD6A-43CF-AB44-CB4159406AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="428">
   <si>
     <t>Norway</t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>Non-USA,Canada,Weurope</t>
+  </si>
+  <si>
+    <t>Row_Number</t>
   </si>
 </sst>
 </file>
@@ -1727,9 +1730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35F093D-8A4E-406C-AA82-C9E655921719}">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1743,6 +1746,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>272</v>
       </c>
@@ -1787,6 +1793,9 @@
       <c r="G2" t="s">
         <v>315</v>
       </c>
+      <c r="H2" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -1810,6 +1819,9 @@
       <c r="G3" t="s">
         <v>379</v>
       </c>
+      <c r="H3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -1833,6 +1845,9 @@
       <c r="G4" t="s">
         <v>315</v>
       </c>
+      <c r="H4" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
@@ -1856,6 +1871,9 @@
       <c r="G5" t="s">
         <v>315</v>
       </c>
+      <c r="H5" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
@@ -1879,6 +1897,9 @@
       <c r="G6" t="s">
         <v>315</v>
       </c>
+      <c r="H6" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -1902,6 +1923,9 @@
       <c r="G7" t="s">
         <v>315</v>
       </c>
+      <c r="H7" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
@@ -1925,6 +1949,9 @@
       <c r="G8" t="s">
         <v>311</v>
       </c>
+      <c r="H8" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -1948,6 +1975,9 @@
       <c r="G9" t="s">
         <v>315</v>
       </c>
+      <c r="H9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
@@ -1971,6 +2001,9 @@
       <c r="G10" t="s">
         <v>315</v>
       </c>
+      <c r="H10" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
@@ -1994,6 +2027,9 @@
       <c r="G11" t="s">
         <v>315</v>
       </c>
+      <c r="H11" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
@@ -2017,6 +2053,9 @@
       <c r="G12" t="s">
         <v>315</v>
       </c>
+      <c r="H12" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
@@ -2040,6 +2079,9 @@
       <c r="G13" t="s">
         <v>315</v>
       </c>
+      <c r="H13" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
@@ -2063,6 +2105,9 @@
       <c r="G14" t="s">
         <v>315</v>
       </c>
+      <c r="H14" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
@@ -2086,6 +2131,9 @@
       <c r="G15" t="s">
         <v>385</v>
       </c>
+      <c r="H15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
@@ -2109,8 +2157,11 @@
       <c r="G16" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>209</v>
       </c>
@@ -2132,8 +2183,11 @@
       <c r="G17" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>214</v>
       </c>
@@ -2155,8 +2209,11 @@
       <c r="G18" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>12</v>
       </c>
@@ -2178,8 +2235,11 @@
       <c r="G19" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2201,8 +2261,11 @@
       <c r="G20" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>46</v>
       </c>
@@ -2224,8 +2287,11 @@
       <c r="G21" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>50</v>
       </c>
@@ -2247,8 +2313,11 @@
       <c r="G22" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>64</v>
       </c>
@@ -2270,8 +2339,11 @@
       <c r="G23" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>70</v>
       </c>
@@ -2293,8 +2365,11 @@
       <c r="G24" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>75</v>
       </c>
@@ -2316,8 +2391,11 @@
       <c r="G25" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>89</v>
       </c>
@@ -2339,8 +2417,11 @@
       <c r="G26" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>90</v>
       </c>
@@ -2362,8 +2443,11 @@
       <c r="G27" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>181</v>
       </c>
@@ -2385,8 +2469,11 @@
       <c r="G28" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>193</v>
       </c>
@@ -2408,8 +2495,11 @@
       <c r="G29" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>203</v>
       </c>
@@ -2431,8 +2521,11 @@
       <c r="G30" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>208</v>
       </c>
@@ -2454,8 +2547,11 @@
       <c r="G31" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>213</v>
       </c>
@@ -2477,8 +2573,11 @@
       <c r="G32" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>217</v>
       </c>
@@ -2500,8 +2599,11 @@
       <c r="G33" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2523,8 +2625,11 @@
       <c r="G34" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2546,8 +2651,11 @@
       <c r="G35" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>7</v>
       </c>
@@ -2569,8 +2677,11 @@
       <c r="G36" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>8</v>
       </c>
@@ -2592,8 +2703,11 @@
       <c r="G37" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>10</v>
       </c>
@@ -2615,8 +2729,11 @@
       <c r="G38" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>15</v>
       </c>
@@ -2638,8 +2755,11 @@
       <c r="G39" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>16</v>
       </c>
@@ -2661,8 +2781,11 @@
       <c r="G40" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>17</v>
       </c>
@@ -2684,8 +2807,11 @@
       <c r="G41" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>22</v>
       </c>
@@ -2707,8 +2833,11 @@
       <c r="G42" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>24</v>
       </c>
@@ -2730,8 +2859,11 @@
       <c r="G43" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>25</v>
       </c>
@@ -2753,8 +2885,11 @@
       <c r="G44" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>27</v>
       </c>
@@ -2776,8 +2911,11 @@
       <c r="G45" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>28</v>
       </c>
@@ -2799,8 +2937,11 @@
       <c r="G46" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>31</v>
       </c>
@@ -2822,8 +2963,11 @@
       <c r="G47" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>33</v>
       </c>
@@ -2845,8 +2989,11 @@
       <c r="G48" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>34</v>
       </c>
@@ -2868,8 +3015,11 @@
       <c r="G49" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>36</v>
       </c>
@@ -2891,8 +3041,11 @@
       <c r="G50" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>38</v>
       </c>
@@ -2914,8 +3067,11 @@
       <c r="G51" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>39</v>
       </c>
@@ -2937,8 +3093,11 @@
       <c r="G52" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>43</v>
       </c>
@@ -2960,8 +3119,11 @@
       <c r="G53" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>44</v>
       </c>
@@ -2983,8 +3145,11 @@
       <c r="G54" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>45</v>
       </c>
@@ -3006,8 +3171,11 @@
       <c r="G55" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>47</v>
       </c>
@@ -3029,8 +3197,11 @@
       <c r="G56" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H56" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>48</v>
       </c>
@@ -3052,8 +3223,11 @@
       <c r="G57" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>49</v>
       </c>
@@ -3075,8 +3249,11 @@
       <c r="G58" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H58" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>51</v>
       </c>
@@ -3098,8 +3275,11 @@
       <c r="G59" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H59" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>53</v>
       </c>
@@ -3121,8 +3301,11 @@
       <c r="G60" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>56</v>
       </c>
@@ -3144,8 +3327,11 @@
       <c r="G61" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>57</v>
       </c>
@@ -3167,8 +3353,11 @@
       <c r="G62" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>58</v>
       </c>
@@ -3190,8 +3379,11 @@
       <c r="G63" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>60</v>
       </c>
@@ -3213,8 +3405,11 @@
       <c r="G64" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>61</v>
       </c>
@@ -3236,8 +3431,11 @@
       <c r="G65" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>62</v>
       </c>
@@ -3259,8 +3457,11 @@
       <c r="G66" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3282,8 +3483,11 @@
       <c r="G67" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3305,8 +3509,11 @@
       <c r="G68" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>69</v>
       </c>
@@ -3328,8 +3535,11 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>71</v>
       </c>
@@ -3351,8 +3561,11 @@
       <c r="G70" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>72</v>
       </c>
@@ -3374,8 +3587,11 @@
       <c r="G71" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>73</v>
       </c>
@@ -3397,8 +3613,11 @@
       <c r="G72" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>78</v>
       </c>
@@ -3420,8 +3639,11 @@
       <c r="G73" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>79</v>
       </c>
@@ -3443,8 +3665,11 @@
       <c r="G74" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>81</v>
       </c>
@@ -3466,8 +3691,11 @@
       <c r="G75" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H75" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>82</v>
       </c>
@@ -3489,8 +3717,11 @@
       <c r="G76" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H76" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>84</v>
       </c>
@@ -3512,8 +3743,11 @@
       <c r="G77" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>85</v>
       </c>
@@ -3535,8 +3769,11 @@
       <c r="G78" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>94</v>
       </c>
@@ -3558,8 +3795,11 @@
       <c r="G79" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>97</v>
       </c>
@@ -3581,8 +3821,11 @@
       <c r="G80" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>99</v>
       </c>
@@ -3604,8 +3847,11 @@
       <c r="G81" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>100</v>
       </c>
@@ -3627,8 +3873,11 @@
       <c r="G82" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>103</v>
       </c>
@@ -3650,8 +3899,11 @@
       <c r="G83" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>104</v>
       </c>
@@ -3673,8 +3925,11 @@
       <c r="G84" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>105</v>
       </c>
@@ -3696,8 +3951,11 @@
       <c r="G85" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H85" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>106</v>
       </c>
@@ -3719,8 +3977,11 @@
       <c r="G86" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H86" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>108</v>
       </c>
@@ -3742,8 +4003,11 @@
       <c r="G87" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>109</v>
       </c>
@@ -3765,8 +4029,11 @@
       <c r="G88" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>110</v>
       </c>
@@ -3788,8 +4055,11 @@
       <c r="G89" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>111</v>
       </c>
@@ -3811,8 +4081,11 @@
       <c r="G90" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>113</v>
       </c>
@@ -3834,8 +4107,11 @@
       <c r="G91" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>115</v>
       </c>
@@ -3857,8 +4133,11 @@
       <c r="G92" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>120</v>
       </c>
@@ -3880,8 +4159,11 @@
       <c r="G93" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>121</v>
       </c>
@@ -3903,8 +4185,11 @@
       <c r="G94" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>124</v>
       </c>
@@ -3926,8 +4211,11 @@
       <c r="G95" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>127</v>
       </c>
@@ -3949,8 +4237,11 @@
       <c r="G96" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H96" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>129</v>
       </c>
@@ -3972,8 +4263,11 @@
       <c r="G97" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H97" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>141</v>
       </c>
@@ -3995,8 +4289,11 @@
       <c r="G98" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H98" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>142</v>
       </c>
@@ -4018,8 +4315,11 @@
       <c r="G99" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H99" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>148</v>
       </c>
@@ -4041,8 +4341,11 @@
       <c r="G100" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H100" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>151</v>
       </c>
@@ -4064,8 +4367,11 @@
       <c r="G101" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H101" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>154</v>
       </c>
@@ -4087,8 +4393,11 @@
       <c r="G102" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H102" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>156</v>
       </c>
@@ -4110,8 +4419,11 @@
       <c r="G103" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H103" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>158</v>
       </c>
@@ -4133,8 +4445,11 @@
       <c r="G104" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H104" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>159</v>
       </c>
@@ -4156,8 +4471,11 @@
       <c r="G105" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H105" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>162</v>
       </c>
@@ -4179,8 +4497,11 @@
       <c r="G106" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H106" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>163</v>
       </c>
@@ -4202,8 +4523,11 @@
       <c r="G107" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H107" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>165</v>
       </c>
@@ -4225,8 +4549,11 @@
       <c r="G108" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H108" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>166</v>
       </c>
@@ -4248,8 +4575,11 @@
       <c r="G109" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H109" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>167</v>
       </c>
@@ -4271,8 +4601,11 @@
       <c r="G110" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H110" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>170</v>
       </c>
@@ -4294,8 +4627,11 @@
       <c r="G111" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H111" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>171</v>
       </c>
@@ -4317,8 +4653,11 @@
       <c r="G112" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H112" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>172</v>
       </c>
@@ -4340,8 +4679,11 @@
       <c r="G113" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H113" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>175</v>
       </c>
@@ -4363,8 +4705,11 @@
       <c r="G114" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H114" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>182</v>
       </c>
@@ -4386,8 +4731,11 @@
       <c r="G115" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H115" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>188</v>
       </c>
@@ -4409,8 +4757,11 @@
       <c r="G116" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H116" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>189</v>
       </c>
@@ -4432,8 +4783,11 @@
       <c r="G117" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H117" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>194</v>
       </c>
@@ -4455,8 +4809,11 @@
       <c r="G118" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>198</v>
       </c>
@@ -4478,8 +4835,11 @@
       <c r="G119" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H119" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>201</v>
       </c>
@@ -4501,8 +4861,11 @@
       <c r="G120" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H120" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>202</v>
       </c>
@@ -4524,8 +4887,11 @@
       <c r="G121" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H121" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>204</v>
       </c>
@@ -4547,8 +4913,11 @@
       <c r="G122" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H122" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>205</v>
       </c>
@@ -4570,8 +4939,11 @@
       <c r="G123" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H123" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>206</v>
       </c>
@@ -4593,8 +4965,11 @@
       <c r="G124" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H124" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>210</v>
       </c>
@@ -4616,8 +4991,11 @@
       <c r="G125" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H125" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>211</v>
       </c>
@@ -4639,8 +5017,11 @@
       <c r="G126" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H126" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>212</v>
       </c>
@@ -4662,8 +5043,11 @@
       <c r="G127" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H127" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>216</v>
       </c>
@@ -4685,8 +5069,11 @@
       <c r="G128" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H128" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>9</v>
       </c>
@@ -4708,8 +5095,11 @@
       <c r="G129" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H129" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>5</v>
       </c>
@@ -4731,8 +5121,11 @@
       <c r="G130" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H130" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>6</v>
       </c>
@@ -4754,8 +5147,11 @@
       <c r="G131" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H131" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>11</v>
       </c>
@@ -4777,8 +5173,11 @@
       <c r="G132" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H132" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>18</v>
       </c>
@@ -4800,8 +5199,11 @@
       <c r="G133" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H133" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>19</v>
       </c>
@@ -4823,8 +5225,11 @@
       <c r="G134" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H134" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>20</v>
       </c>
@@ -4846,8 +5251,11 @@
       <c r="G135" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H135" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>21</v>
       </c>
@@ -4869,8 +5277,11 @@
       <c r="G136" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H136" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>26</v>
       </c>
@@ -4892,8 +5303,11 @@
       <c r="G137" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H137" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>29</v>
       </c>
@@ -4915,8 +5329,11 @@
       <c r="G138" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H138" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>30</v>
       </c>
@@ -4938,8 +5355,11 @@
       <c r="G139" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H139" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>32</v>
       </c>
@@ -4961,8 +5381,11 @@
       <c r="G140" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H140" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>35</v>
       </c>
@@ -4984,8 +5407,11 @@
       <c r="G141" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H141" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>42</v>
       </c>
@@ -5007,8 +5433,11 @@
       <c r="G142" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H142" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>55</v>
       </c>
@@ -5030,8 +5459,11 @@
       <c r="G143" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H143" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>59</v>
       </c>
@@ -5053,8 +5485,11 @@
       <c r="G144" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H144" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>63</v>
       </c>
@@ -5076,8 +5511,11 @@
       <c r="G145" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H145" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>67</v>
       </c>
@@ -5099,8 +5537,11 @@
       <c r="G146" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H146" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>68</v>
       </c>
@@ -5122,8 +5563,11 @@
       <c r="G147" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H147" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>76</v>
       </c>
@@ -5145,8 +5589,11 @@
       <c r="G148" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H148" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>77</v>
       </c>
@@ -5168,8 +5615,11 @@
       <c r="G149" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H149" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>80</v>
       </c>
@@ -5191,8 +5641,11 @@
       <c r="G150" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H150" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>83</v>
       </c>
@@ -5214,8 +5667,11 @@
       <c r="G151" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H151" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>86</v>
       </c>
@@ -5237,8 +5693,11 @@
       <c r="G152" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H152" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>87</v>
       </c>
@@ -5260,8 +5719,11 @@
       <c r="G153" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H153" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>88</v>
       </c>
@@ -5283,8 +5745,11 @@
       <c r="G154" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H154" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>91</v>
       </c>
@@ -5306,8 +5771,11 @@
       <c r="G155" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H155" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>93</v>
       </c>
@@ -5329,8 +5797,11 @@
       <c r="G156" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H156" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>95</v>
       </c>
@@ -5352,8 +5823,11 @@
       <c r="G157" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H157" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>96</v>
       </c>
@@ -5375,8 +5849,11 @@
       <c r="G158" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H158" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>98</v>
       </c>
@@ -5398,8 +5875,11 @@
       <c r="G159" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H159" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>101</v>
       </c>
@@ -5421,8 +5901,11 @@
       <c r="G160" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H160" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>102</v>
       </c>
@@ -5444,8 +5927,11 @@
       <c r="G161" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H161" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>107</v>
       </c>
@@ -5467,8 +5953,11 @@
       <c r="G162" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H162" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>112</v>
       </c>
@@ -5490,8 +5979,11 @@
       <c r="G163" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H163" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>114</v>
       </c>
@@ -5513,8 +6005,11 @@
       <c r="G164" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H164" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>116</v>
       </c>
@@ -5536,8 +6031,11 @@
       <c r="G165" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H165" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>117</v>
       </c>
@@ -5559,8 +6057,11 @@
       <c r="G166" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H166" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>118</v>
       </c>
@@ -5582,8 +6083,11 @@
       <c r="G167" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H167" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>119</v>
       </c>
@@ -5605,8 +6109,11 @@
       <c r="G168" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H168" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>122</v>
       </c>
@@ -5628,8 +6135,11 @@
       <c r="G169" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H169" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>125</v>
       </c>
@@ -5651,8 +6161,11 @@
       <c r="G170" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H170" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>128</v>
       </c>
@@ -5674,8 +6187,11 @@
       <c r="G171" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H171" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>130</v>
       </c>
@@ -5697,8 +6213,11 @@
       <c r="G172" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H172" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>132</v>
       </c>
@@ -5720,8 +6239,11 @@
       <c r="G173" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H173" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>133</v>
       </c>
@@ -5743,8 +6265,11 @@
       <c r="G174" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H174" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>134</v>
       </c>
@@ -5766,8 +6291,11 @@
       <c r="G175" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H175" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>136</v>
       </c>
@@ -5789,8 +6317,11 @@
       <c r="G176" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H176" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>137</v>
       </c>
@@ -5812,8 +6343,11 @@
       <c r="G177" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H177" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>138</v>
       </c>
@@ -5835,8 +6369,11 @@
       <c r="G178" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H178" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>139</v>
       </c>
@@ -5858,8 +6395,11 @@
       <c r="G179" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H179" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>140</v>
       </c>
@@ -5881,8 +6421,11 @@
       <c r="G180" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H180" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>143</v>
       </c>
@@ -5904,8 +6447,11 @@
       <c r="G181" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H181" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>144</v>
       </c>
@@ -5927,8 +6473,11 @@
       <c r="G182" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H182" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>145</v>
       </c>
@@ -5950,8 +6499,11 @@
       <c r="G183" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H183" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>146</v>
       </c>
@@ -5973,8 +6525,11 @@
       <c r="G184" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H184" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>147</v>
       </c>
@@ -5996,8 +6551,11 @@
       <c r="G185" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H185" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>149</v>
       </c>
@@ -6019,8 +6577,11 @@
       <c r="G186" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H186" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>150</v>
       </c>
@@ -6042,8 +6603,11 @@
       <c r="G187" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H187" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>152</v>
       </c>
@@ -6065,8 +6629,11 @@
       <c r="G188" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H188" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>153</v>
       </c>
@@ -6088,8 +6655,11 @@
       <c r="G189" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H189" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>155</v>
       </c>
@@ -6111,8 +6681,11 @@
       <c r="G190" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H190" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>160</v>
       </c>
@@ -6134,8 +6707,11 @@
       <c r="G191" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H191" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>161</v>
       </c>
@@ -6157,8 +6733,11 @@
       <c r="G192" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H192" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>164</v>
       </c>
@@ -6180,8 +6759,11 @@
       <c r="G193" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H193" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>168</v>
       </c>
@@ -6203,8 +6785,11 @@
       <c r="G194" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H194" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>169</v>
       </c>
@@ -6226,8 +6811,11 @@
       <c r="G195" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H195" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>173</v>
       </c>
@@ -6249,8 +6837,11 @@
       <c r="G196" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H196" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>174</v>
       </c>
@@ -6272,8 +6863,11 @@
       <c r="G197" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H197" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>176</v>
       </c>
@@ -6295,8 +6889,11 @@
       <c r="G198" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H198" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>177</v>
       </c>
@@ -6318,8 +6915,11 @@
       <c r="G199" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H199" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>178</v>
       </c>
@@ -6341,8 +6941,11 @@
       <c r="G200" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H200" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>180</v>
       </c>
@@ -6364,8 +6967,11 @@
       <c r="G201" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H201" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>184</v>
       </c>
@@ -6387,8 +6993,11 @@
       <c r="G202" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H202" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>185</v>
       </c>
@@ -6410,8 +7019,11 @@
       <c r="G203" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H203" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>186</v>
       </c>
@@ -6433,8 +7045,11 @@
       <c r="G204" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H204" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>187</v>
       </c>
@@ -6456,8 +7071,11 @@
       <c r="G205" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H205" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>190</v>
       </c>
@@ -6479,8 +7097,11 @@
       <c r="G206" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H206" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>192</v>
       </c>
@@ -6502,8 +7123,11 @@
       <c r="G207" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H207" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>195</v>
       </c>
@@ -6524,6 +7148,9 @@
       </c>
       <c r="G208" t="s">
         <v>311</v>
+      </c>
+      <c r="H208" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.45">
@@ -6548,6 +7175,9 @@
       <c r="G209" t="s">
         <v>375</v>
       </c>
+      <c r="H209" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A210">
@@ -6571,6 +7201,9 @@
       <c r="G210" t="s">
         <v>315</v>
       </c>
+      <c r="H210" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211">
@@ -6594,6 +7227,9 @@
       <c r="G211" t="s">
         <v>315</v>
       </c>
+      <c r="H211" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A212">
@@ -6617,6 +7253,9 @@
       <c r="G212" t="s">
         <v>343</v>
       </c>
+      <c r="H212" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A213">
@@ -6640,6 +7279,9 @@
       <c r="G213" t="s">
         <v>315</v>
       </c>
+      <c r="H213" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214">
@@ -6663,6 +7305,9 @@
       <c r="G214" t="s">
         <v>315</v>
       </c>
+      <c r="H214" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A215">
@@ -6686,6 +7331,9 @@
       <c r="G215" t="s">
         <v>315</v>
       </c>
+      <c r="H215" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216">
@@ -6709,6 +7357,9 @@
       <c r="G216" t="s">
         <v>315</v>
       </c>
+      <c r="H216" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217">
@@ -6731,6 +7382,9 @@
       </c>
       <c r="G217" t="s">
         <v>315</v>
+      </c>
+      <c r="H217" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.45">
